--- a/public/OfficeApp1/OfficeApp1/bin/Debug/Book1.xlsx
+++ b/public/OfficeApp1/OfficeApp1/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R02a3db3a442f471c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R41cdf45f947b43ab"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5923451d5dd84093"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcfbe2e4eb7fa4ad3"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{52fe6283-a803-4215-a6a7-ee88ae56c0a7}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bf73a3a0-d196-43a7-8cf6-d6b0f2fe4a96}">
   <we:reference id="6b7ad444-df0f-4b57-bb3c-46df5ae7b4d9" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
